--- a/biology/Zoologie/Hespérie_du_chiendent/Hespérie_du_chiendent.xlsx
+++ b/biology/Zoologie/Hespérie_du_chiendent/Hespérie_du_chiendent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_chiendent</t>
+          <t>Hespérie_du_chiendent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thymelicus acteon
 L’Hespérie du chiendent ou Actéon (Thymelicus acteon) est un lépidoptère (papillon) de la famille des Hesperiidae, de la sous-famille des Hesperiinae et du genre Thymelicus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_chiendent</t>
+          <t>Hespérie_du_chiendent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Thymelicus acteon a été décrit par S. A. von Rottemburg en 1775 sous le nom de Papilio acteon[1].
-Synonymes : Thymelicus acteon acteon (Rottemburg, 1775); Thymelicus heydeni Plötz, 1884[2].
-Noms vernaculaires
-L'Hespérie du chiendent ou Actéon se nomme Lullworth Skipper en anglais, Mattscheckiger Braun-Dickkopffalter en allemand, Dorada oscura en espagnol et Sari lekeli zıpzıp en turc[1],[3].
-Sous-espèces
-Thymelicus acteon christi aux Canaries[4]. Certains ouvrages la considère comme une espèce à part entière[5].
-Thymelicus acteon orana au Maroc, en Algérie et en Tunisie[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thymelicus acteon a été décrit par S. A. von Rottemburg en 1775 sous le nom de Papilio acteon.
+Synonymes : Thymelicus acteon acteon (Rottemburg, 1775); Thymelicus heydeni Plötz, 1884.
+</t>
         </is>
       </c>
     </row>
@@ -530,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_chiendent</t>
+          <t>Hespérie_du_chiendent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,15 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un petit papillon d'une envergure de 22 mm à 26 mm au dessus des ailes marron orangé à marron suivant les lieux de résidence avec aux antérieures chez le mâle une ligne androconiale longue et fine[4],[6].
-Le revers est d'une couleur plus claire, beige jaune.
-Chenille
-La chenille est de couleur vert pâle ornée d'une ligne foncée[7].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du chiendent ou Actéon se nomme Lullworth Skipper en anglais, Mattscheckiger Braun-Dickkopffalter en allemand, Dorada oscura en espagnol et Sari lekeli zıpzıp en turc,.
 </t>
         </is>
       </c>
@@ -564,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_chiendent</t>
+          <t>Hespérie_du_chiendent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,17 +592,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hibernation
-L'Hespérie du chiendent vole en une seule génération de début mai à août, mais la sous-espèce Thymelicus acteon christi présente aux Canaries, aurait deux ou trois générations.
-Elle hiverne au stade de chenille[4].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont de nombreuses poacées, Agropyron dont Agropyron repens, Brachypodium dont (Brachypodium pinnatum, Brachypodium sylvaticum), Bromus, Calamagrostis epigejos, Elytrigia repens, Holcus lanatus, Poa annua[1],[4].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thymelicus acteon christi aux Canaries. Certains ouvrages la considère comme une espèce à part entière.
+Thymelicus acteon orana au Maroc, en Algérie et en Tunisie.</t>
         </is>
       </c>
     </row>
@@ -599,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_chiendent</t>
+          <t>Hespérie_du_chiendent</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,18 +629,236 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon d'une envergure de 22 mm à 26 mm au dessus des ailes marron orangé à marron suivant les lieux de résidence avec aux antérieures chez le mâle une ligne androconiale longue et fine,.
+Le revers est d'une couleur plus claire, beige jaune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_du_chiendent</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_chiendent</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est de couleur vert pâle ornée d'une ligne foncée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_du_chiendent</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_chiendent</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hibernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du chiendent vole en une seule génération de début mai à août, mais la sous-espèce Thymelicus acteon christi présente aux Canaries, aurait deux ou trois générations.
+Elle hiverne au stade de chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_du_chiendent</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_chiendent</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont de nombreuses poacées, Agropyron dont Agropyron repens, Brachypodium dont (Brachypodium pinnatum, Brachypodium sylvaticum), Bromus, Calamagrostis epigejos, Elytrigia repens, Holcus lanatus, Poa annua,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_du_chiendent</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_chiendent</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hespérie du chiendent réside dans toute l'Europe jusqu'au 54°N, aux îles Canaries, en Afrique du Nord, au Liban et en Asie Mineure[1],[4].
-L'Hespérie du chiendent est présente dans presque toute la France métropolitaine. Elle est absente de quelques départements dont ceux d'Île-de-France et de Corse [8].
-Biotope
-L'Hespérie du chiendent réside dans les milieux herbus fleuris : talus, bords de routes et friches[4].
-Protection
-Cette espèce figure sur la liste rouge des papillons diurnes du Nord-Pas-de-Calais comme étant en danger critique (CR)[9].
-Il existe en France 79 ZNIEFF pour Thymelicus acteon[10].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du chiendent réside dans toute l'Europe jusqu'au 54°N, aux îles Canaries, en Afrique du Nord, au Liban et en Asie Mineure,.
+L'Hespérie du chiendent est présente dans presque toute la France métropolitaine. Elle est absente de quelques départements dont ceux d'Île-de-France et de Corse .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hespérie_du_chiendent</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_chiendent</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du chiendent réside dans les milieux herbus fleuris : talus, bords de routes et friches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hespérie_du_chiendent</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_chiendent</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce figure sur la liste rouge des papillons diurnes du Nord-Pas-de-Calais comme étant en danger critique (CR).
+Il existe en France 79 ZNIEFF pour Thymelicus acteon.
 </t>
         </is>
       </c>
